--- a/db_tools/acctg_db2/acctg_export2.xlsx
+++ b/db_tools/acctg_db2/acctg_export2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgrammingPython\thanos_app\db_tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgrammingPython\thanos_app\db_tools\acctg_db2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349C920D-BEAD-4864-8773-9E7498784BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7B909A-E56B-455E-85F6-879F7AB4389A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15750" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="account_types" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,28 @@
     <sheet name="bill_payments" sheetId="19" r:id="rId20"/>
     <sheet name="bank_transactions" sheetId="20" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <externalReferences>
+    <externalReference r:id="rId22"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="681">
   <si>
     <t>id</t>
   </si>
@@ -2114,7 +2130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2137,6 +2153,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2146,8 +2173,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2163,6 +2192,513 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Accounts"/>
+      <sheetName val="Customers"/>
+      <sheetName val="Invoice_Payments"/>
+      <sheetName val="Invoices"/>
+      <sheetName val="Received_Moneys"/>
+      <sheetName val="Invoice_Lines"/>
+      <sheetName val="Received_Money_Lines"/>
+      <sheetName val="Suppliers"/>
+      <sheetName val="Bill_Payments"/>
+      <sheetName val="Bills"/>
+      <sheetName val="Bill_Lines"/>
+      <sheetName val="Spent_Moneys"/>
+      <sheetName val="Spent_Money_Lines"/>
+      <sheetName val="Journals"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>110</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>Business Bank Account</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>120</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Accounts Receivable</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>130</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>Petty Cash</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>135</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>Provision for Doubtful Debts</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>140</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Prepayments</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>150</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Withholding Tax Paid</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>160</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>Inventory</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>165</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>Provision for Stock Obsolence</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>170</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>Land</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>180</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>Building</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>185</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>Accumulated Depreciation on Building</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>190</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>Office Equipment</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>195</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>Accumulated Depreciation on Office Equipment</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>200</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>Computer Equipment</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>205</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>Accumulated Depreciation on Computer Equipment</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>210</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>Furniture</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>215</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>Accumulated Depreciation on Furniture</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>220</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>Motor Vehicles</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>225</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>Accumulated Depreciation on Motor Vehicles</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>310</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>Accounts Payable</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>320</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>Accrued Expenses</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>330</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>Revenue Received in Advance</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>340</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>Wages Payable - Payroll</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>350</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>Wages Deductions Payable</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>360</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>Income Tax</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>370</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>Finance Lease</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>380</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>Loans Payable</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>410</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>Owner - Investments</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>420</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>Owner - Drawings</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>430</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>Retained Earnings</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>510</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>Sales</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>520</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>Other Revenue</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>530</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>Interest Income</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>540</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>Dividends Received</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>610</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>Cost of Goods Sold</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>620</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>General Expenses</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>630</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>Supplies Expense</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>640</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>Advertising</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>650</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>Consulting &amp; Accounting</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>660</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>Depreciation</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>670</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>Entertainment</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>680</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>Freight &amp; Courier</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>690</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>Insurance</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>700</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>Legal expenses</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>710</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>Electricity</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>720</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>Motor Vehicle Expenses</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>730</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>Office Expenses</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>740</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>Printing &amp; Stationery</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>750</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>Rates</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>760</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>Rent</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>770</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>Repairs and Maintenance</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>780</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>Salaries</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>790</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>Subscriptions</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>800</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>Telephone &amp; Internet</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>810</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>Travel Expenses</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>820</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>Bank Fees</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>830</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>Interest Expense</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>840</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>Income Tax Expense</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4346,7 +4882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -5787,10 +6323,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5805,7 +6341,7 @@
     <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5830,8 +6366,11 @@
       <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5853,8 +6392,12 @@
       <c r="H2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="str">
+        <f>_xlfn.XLOOKUP(C2,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5879,8 +6422,12 @@
       <c r="H3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="str">
+        <f>_xlfn.XLOOKUP(C3,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5905,8 +6452,12 @@
       <c r="H4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="str">
+        <f>_xlfn.XLOOKUP(C4,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5931,8 +6482,12 @@
       <c r="H5" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="str">
+        <f>_xlfn.XLOOKUP(C5,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5957,8 +6512,12 @@
       <c r="H6" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="str">
+        <f>_xlfn.XLOOKUP(C6,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5983,8 +6542,12 @@
       <c r="H7" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="str">
+        <f>_xlfn.XLOOKUP(C7,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6009,8 +6572,12 @@
       <c r="H8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <f>_xlfn.XLOOKUP(C8,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6035,8 +6602,12 @@
       <c r="H9" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <f>_xlfn.XLOOKUP(C9,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6061,8 +6632,12 @@
       <c r="H10" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="str">
+        <f>_xlfn.XLOOKUP(C10,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6087,8 +6662,12 @@
       <c r="H11" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" t="str">
+        <f>_xlfn.XLOOKUP(C11,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6113,8 +6692,12 @@
       <c r="H12" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="str">
+        <f>_xlfn.XLOOKUP(C12,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6139,8 +6722,12 @@
       <c r="H13" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" t="str">
+        <f>_xlfn.XLOOKUP(C13,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6165,8 +6752,12 @@
       <c r="H14" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" t="str">
+        <f>_xlfn.XLOOKUP(C14,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6191,8 +6782,12 @@
       <c r="H15" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" t="str">
+        <f>_xlfn.XLOOKUP(C15,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6217,8 +6812,12 @@
       <c r="H16" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <f>_xlfn.XLOOKUP(C16,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6243,8 +6842,12 @@
       <c r="H17" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="str">
+        <f>_xlfn.XLOOKUP(C17,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6266,8 +6869,12 @@
       <c r="H18" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="str">
+        <f>_xlfn.XLOOKUP(C18,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6292,8 +6899,12 @@
       <c r="H19" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="str">
+        <f>_xlfn.XLOOKUP(C19,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6318,8 +6929,12 @@
       <c r="H20" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <f>_xlfn.XLOOKUP(C20,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6344,8 +6959,12 @@
       <c r="H21" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <f>_xlfn.XLOOKUP(C21,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6370,8 +6989,12 @@
       <c r="H22" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" t="str">
+        <f>_xlfn.XLOOKUP(C22,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6396,8 +7019,12 @@
       <c r="H23" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" t="str">
+        <f>_xlfn.XLOOKUP(C23,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6422,8 +7049,12 @@
       <c r="H24" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" t="str">
+        <f>_xlfn.XLOOKUP(C24,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6448,8 +7079,12 @@
       <c r="H25" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" t="str">
+        <f>_xlfn.XLOOKUP(C25,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6474,8 +7109,12 @@
       <c r="H26" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" t="str">
+        <f>_xlfn.XLOOKUP(C26,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6500,8 +7139,12 @@
       <c r="H27" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" t="str">
+        <f>_xlfn.XLOOKUP(C27,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6523,8 +7166,12 @@
       <c r="H28" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" t="str">
+        <f>_xlfn.XLOOKUP(C28,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6549,8 +7196,12 @@
       <c r="H29" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" t="str">
+        <f>_xlfn.XLOOKUP(C29,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6575,8 +7226,12 @@
       <c r="H30" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <f>_xlfn.XLOOKUP(C30,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6601,8 +7256,12 @@
       <c r="H31" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" t="str">
+        <f>_xlfn.XLOOKUP(C31,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6624,8 +7283,12 @@
       <c r="H32" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" t="str">
+        <f>_xlfn.XLOOKUP(C32,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6650,8 +7313,12 @@
       <c r="H33" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" t="str">
+        <f>_xlfn.XLOOKUP(C33,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6676,8 +7343,12 @@
       <c r="H34" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" t="str">
+        <f>_xlfn.XLOOKUP(C34,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6702,8 +7373,12 @@
       <c r="H35" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <f>_xlfn.XLOOKUP(C35,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6728,8 +7403,12 @@
       <c r="H36" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" t="str">
+        <f>_xlfn.XLOOKUP(C36,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6751,8 +7430,12 @@
       <c r="H37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" t="str">
+        <f>_xlfn.XLOOKUP(C37,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6777,8 +7460,12 @@
       <c r="H38" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <f>_xlfn.XLOOKUP(C38,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6803,8 +7490,12 @@
       <c r="H39" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" t="str">
+        <f>_xlfn.XLOOKUP(C39,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6829,8 +7520,12 @@
       <c r="H40" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" t="str">
+        <f>_xlfn.XLOOKUP(C40,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6855,8 +7550,12 @@
       <c r="H41" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" t="str">
+        <f>_xlfn.XLOOKUP(C41,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6881,8 +7580,12 @@
       <c r="H42" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" t="str">
+        <f>_xlfn.XLOOKUP(C42,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6907,8 +7610,12 @@
       <c r="H43" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" t="str">
+        <f>_xlfn.XLOOKUP(C43,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6933,8 +7640,12 @@
       <c r="H44" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44" t="str">
+        <f>_xlfn.XLOOKUP(C44,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6959,8 +7670,12 @@
       <c r="H45" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" t="str">
+        <f>_xlfn.XLOOKUP(C45,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6985,8 +7700,12 @@
       <c r="H46" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <f>_xlfn.XLOOKUP(C46,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7010,6 +7729,10 @@
       </c>
       <c r="H47" t="s">
         <v>151</v>
+      </c>
+      <c r="I47" t="str">
+        <f>_xlfn.XLOOKUP(C47,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -7021,7 +7744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -8391,7 +9116,7 @@
       <c r="M12" t="s">
         <v>637</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" t="s">
         <v>636</v>
       </c>
       <c r="O12" t="s">
@@ -8444,7 +9169,7 @@
       <c r="M13" t="s">
         <v>638</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" t="s">
         <v>636</v>
       </c>
       <c r="O13" t="s">
@@ -8497,7 +9222,7 @@
       <c r="M14" t="s">
         <v>639</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" t="s">
         <v>636</v>
       </c>
       <c r="O14" t="s">
@@ -8550,7 +9275,7 @@
       <c r="M15" t="s">
         <v>640</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" t="s">
         <v>636</v>
       </c>
       <c r="O15" t="s">
@@ -8603,7 +9328,7 @@
       <c r="M16" t="s">
         <v>641</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" t="s">
         <v>636</v>
       </c>
       <c r="O16" t="s">
@@ -8708,7 +9433,7 @@
       <c r="D1" t="s">
         <v>644</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>645</v>
       </c>
       <c r="F1" t="s">
@@ -8766,7 +9491,7 @@
       <c r="D3" t="s">
         <v>656</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>209268717220</v>
       </c>
       <c r="F3" t="s">
@@ -8795,7 +9520,7 @@
       <c r="D4" t="s">
         <v>661</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>207555183118</v>
       </c>
       <c r="F4" t="s">
@@ -8824,7 +9549,7 @@
       <c r="D5" t="s">
         <v>666</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>208714677697</v>
       </c>
       <c r="F5" t="s">
@@ -8853,7 +9578,7 @@
       <c r="D6" t="s">
         <v>672</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>201564537686</v>
       </c>
       <c r="F6" t="s">

--- a/db_tools/acctg_db2/acctg_export2.xlsx
+++ b/db_tools/acctg_db2/acctg_export2.xlsx
@@ -8,36 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgrammingPython\thanos_app\db_tools\acctg_db2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7B909A-E56B-455E-85F6-879F7AB4389A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC28EBC-7403-48C7-A42A-D4D7CF0BD5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="account_types" sheetId="1" r:id="rId1"/>
     <sheet name="accounts" sheetId="2" r:id="rId2"/>
-    <sheet name="contact_types" sheetId="3" r:id="rId3"/>
-    <sheet name="contacts" sheetId="4" r:id="rId4"/>
+    <sheet name="entity_types" sheetId="3" r:id="rId3"/>
+    <sheet name="entities" sheetId="4" r:id="rId4"/>
     <sheet name="fiscal_years" sheetId="5" r:id="rId5"/>
     <sheet name="users" sheetId="21" r:id="rId6"/>
     <sheet name="currencies" sheetId="6" r:id="rId7"/>
     <sheet name="tax_rates" sheetId="7" r:id="rId8"/>
     <sheet name="payment_methods" sheetId="8" r:id="rId9"/>
     <sheet name="bank_accounts" sheetId="9" r:id="rId10"/>
-    <sheet name="journal_entries" sheetId="10" r:id="rId11"/>
-    <sheet name="journal_entry_lines" sheetId="11" r:id="rId12"/>
-    <sheet name="product_categories" sheetId="12" r:id="rId13"/>
-    <sheet name="products" sheetId="13" r:id="rId14"/>
-    <sheet name="invoices" sheetId="14" r:id="rId15"/>
+    <sheet name="journals" sheetId="10" r:id="rId11"/>
+    <sheet name="journal_lines" sheetId="11" r:id="rId12"/>
+    <sheet name="invoices" sheetId="14" r:id="rId13"/>
+    <sheet name="product_categories" sheetId="12" r:id="rId14"/>
+    <sheet name="products" sheetId="13" r:id="rId15"/>
     <sheet name="invoice_lines" sheetId="15" r:id="rId16"/>
     <sheet name="bills" sheetId="16" r:id="rId17"/>
     <sheet name="bill_lines" sheetId="17" r:id="rId18"/>
-    <sheet name="invoice_payments" sheetId="18" r:id="rId19"/>
-    <sheet name="bill_payments" sheetId="19" r:id="rId20"/>
-    <sheet name="bank_transactions" sheetId="20" r:id="rId21"/>
+    <sheet name="cash_transactions" sheetId="19" r:id="rId19"/>
+    <sheet name="bank_transactions" sheetId="20" r:id="rId20"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId22"/>
-  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">cash_transactions!$A$1:$J$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">journal_lines!$A$1:$F$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="603">
   <si>
     <t>id</t>
   </si>
@@ -556,9 +556,6 @@
     <t>website</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
     <t>John Smith</t>
   </si>
   <si>
@@ -1009,15 +1006,6 @@
     <t>is_closed</t>
   </si>
   <si>
-    <t>FY 2022</t>
-  </si>
-  <si>
-    <t>2022-01-01</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
     <t>symbol</t>
   </si>
   <si>
@@ -1162,174 +1150,9 @@
     <t>date</t>
   </si>
   <si>
-    <t>entry_number</t>
-  </si>
-  <si>
     <t>is_posted</t>
   </si>
   <si>
-    <t>2022-01-05</t>
-  </si>
-  <si>
-    <t>2022-01-10</t>
-  </si>
-  <si>
-    <t>2022-01-15</t>
-  </si>
-  <si>
-    <t>2022-01-20</t>
-  </si>
-  <si>
-    <t>2022-01-25</t>
-  </si>
-  <si>
-    <t>2022-01-31</t>
-  </si>
-  <si>
-    <t>2022-02-05</t>
-  </si>
-  <si>
-    <t>2022-02-10</t>
-  </si>
-  <si>
-    <t>2022-02-15</t>
-  </si>
-  <si>
-    <t>2022-02-20</t>
-  </si>
-  <si>
-    <t>2022-02-25</t>
-  </si>
-  <si>
-    <t>2022-02-28</t>
-  </si>
-  <si>
-    <t>2022-03-05</t>
-  </si>
-  <si>
-    <t>2022-03-10</t>
-  </si>
-  <si>
-    <t>2022-03-15</t>
-  </si>
-  <si>
-    <t>2022-03-20</t>
-  </si>
-  <si>
-    <t>2022-03-25</t>
-  </si>
-  <si>
-    <t>2022-03-31</t>
-  </si>
-  <si>
-    <t>2022-04-05</t>
-  </si>
-  <si>
-    <t>2022-04-10</t>
-  </si>
-  <si>
-    <t>2022-04-15</t>
-  </si>
-  <si>
-    <t>2022-04-20</t>
-  </si>
-  <si>
-    <t>2022-04-25</t>
-  </si>
-  <si>
-    <t>2022-04-30</t>
-  </si>
-  <si>
-    <t>2022-05-10</t>
-  </si>
-  <si>
-    <t>2022-05-15</t>
-  </si>
-  <si>
-    <t>2022-05-31</t>
-  </si>
-  <si>
-    <t>JE-2022-001</t>
-  </si>
-  <si>
-    <t>JE-2022-002</t>
-  </si>
-  <si>
-    <t>JE-2022-003</t>
-  </si>
-  <si>
-    <t>JE-2022-004</t>
-  </si>
-  <si>
-    <t>JE-2022-005</t>
-  </si>
-  <si>
-    <t>JE-2022-006</t>
-  </si>
-  <si>
-    <t>JE-2022-007</t>
-  </si>
-  <si>
-    <t>JE-2022-008</t>
-  </si>
-  <si>
-    <t>JE-2022-009</t>
-  </si>
-  <si>
-    <t>JE-2022-010</t>
-  </si>
-  <si>
-    <t>JE-2022-011</t>
-  </si>
-  <si>
-    <t>JE-2022-012</t>
-  </si>
-  <si>
-    <t>JE-2022-013</t>
-  </si>
-  <si>
-    <t>JE-2022-014</t>
-  </si>
-  <si>
-    <t>JE-2022-015</t>
-  </si>
-  <si>
-    <t>JE-2022-016</t>
-  </si>
-  <si>
-    <t>JE-2022-017</t>
-  </si>
-  <si>
-    <t>JE-2022-018</t>
-  </si>
-  <si>
-    <t>JE-2022-019</t>
-  </si>
-  <si>
-    <t>JE-2022-020</t>
-  </si>
-  <si>
-    <t>JE-2022-021</t>
-  </si>
-  <si>
-    <t>JE-2022-022</t>
-  </si>
-  <si>
-    <t>JE-2022-023</t>
-  </si>
-  <si>
-    <t>JE-2022-024</t>
-  </si>
-  <si>
-    <t>JE-2022-025</t>
-  </si>
-  <si>
-    <t>JE-2022-026</t>
-  </si>
-  <si>
-    <t>JE-2022-027</t>
-  </si>
-  <si>
     <t>Initial capital investment</t>
   </si>
   <si>
@@ -1351,111 +1174,27 @@
     <t>Purchase of equipment</t>
   </si>
   <si>
-    <t>Marketing expenses</t>
-  </si>
-  <si>
-    <t>Insurance payment</t>
-  </si>
-  <si>
-    <t>Purchase of inventory</t>
-  </si>
-  <si>
-    <t>Quarterly tax payment</t>
-  </si>
-  <si>
-    <t>Software subscription</t>
-  </si>
-  <si>
-    <t>Owner investment to start business operations</t>
-  </si>
-  <si>
     <t>Monthly office rent</t>
   </si>
   <si>
-    <t>Initial office supplies</t>
-  </si>
-  <si>
-    <t>First sales of the year</t>
-  </si>
-  <si>
-    <t>Electricity and water bills</t>
-  </si>
-  <si>
-    <t>January payroll</t>
-  </si>
-  <si>
-    <t>New computers for office</t>
-  </si>
-  <si>
-    <t>February sales</t>
-  </si>
-  <si>
-    <t>Online advertising campaign</t>
-  </si>
-  <si>
-    <t>February payroll</t>
-  </si>
-  <si>
-    <t>Annual business insurance</t>
-  </si>
-  <si>
-    <t>March sales</t>
-  </si>
-  <si>
-    <t>Inventory restocking</t>
-  </si>
-  <si>
-    <t>March payroll</t>
-  </si>
-  <si>
-    <t>Q1 tax payment</t>
-  </si>
-  <si>
-    <t>April sales</t>
-  </si>
-  <si>
-    <t>Annual software licenses</t>
-  </si>
-  <si>
-    <t>April payroll</t>
-  </si>
-  <si>
-    <t>May sales</t>
-  </si>
-  <si>
-    <t>May payroll</t>
-  </si>
-  <si>
     <t>2025-03-24 06:31:25</t>
   </si>
   <si>
-    <t>journal_entry_id</t>
-  </si>
-  <si>
     <t>debit</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>Cash investment</t>
-  </si>
-  <si>
     <t>Owner capital</t>
   </si>
   <si>
-    <t>Payment from checking account</t>
-  </si>
-  <si>
     <t>Office supplies purchase</t>
   </si>
   <si>
     <t>Cash from sales</t>
   </si>
   <si>
-    <t>Revenue from product sales</t>
-  </si>
-  <si>
     <t>Monthly utilities</t>
   </si>
   <si>
@@ -1633,54 +1372,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>INV-2022-001</t>
-  </si>
-  <si>
-    <t>INV-2022-002</t>
-  </si>
-  <si>
-    <t>INV-2022-003</t>
-  </si>
-  <si>
-    <t>INV-2022-004</t>
-  </si>
-  <si>
-    <t>INV-2022-005</t>
-  </si>
-  <si>
-    <t>INV-2022-006</t>
-  </si>
-  <si>
-    <t>INV-2022-007</t>
-  </si>
-  <si>
-    <t>INV-2022-008</t>
-  </si>
-  <si>
-    <t>2022-03-01</t>
-  </si>
-  <si>
-    <t>2022-04-01</t>
-  </si>
-  <si>
-    <t>2022-02-14</t>
-  </si>
-  <si>
-    <t>2022-02-19</t>
-  </si>
-  <si>
-    <t>2022-03-07</t>
-  </si>
-  <si>
-    <t>2022-03-17</t>
-  </si>
-  <si>
-    <t>2022-04-14</t>
-  </si>
-  <si>
-    <t>2022-05-01</t>
-  </si>
-  <si>
     <t>Computer equipment sale</t>
   </si>
   <si>
@@ -1726,39 +1417,6 @@
     <t>bill_number</t>
   </si>
   <si>
-    <t>BILL-2022-001</t>
-  </si>
-  <si>
-    <t>BILL-2022-002</t>
-  </si>
-  <si>
-    <t>BILL-2022-003</t>
-  </si>
-  <si>
-    <t>BILL-2022-004</t>
-  </si>
-  <si>
-    <t>BILL-2022-005</t>
-  </si>
-  <si>
-    <t>BILL-2022-006</t>
-  </si>
-  <si>
-    <t>BILL-2022-007</t>
-  </si>
-  <si>
-    <t>BILL-2022-008</t>
-  </si>
-  <si>
-    <t>2022-02-01</t>
-  </si>
-  <si>
-    <t>2022-02-04</t>
-  </si>
-  <si>
-    <t>2022-03-03</t>
-  </si>
-  <si>
     <t>IT equipment purchase</t>
   </si>
   <si>
@@ -1783,102 +1441,6 @@
     <t>payment_method_id</t>
   </si>
   <si>
-    <t>IP-2022-001</t>
-  </si>
-  <si>
-    <t>IP-2022-002</t>
-  </si>
-  <si>
-    <t>IP-2022-003</t>
-  </si>
-  <si>
-    <t>IP-2022-004</t>
-  </si>
-  <si>
-    <t>IP-2022-005</t>
-  </si>
-  <si>
-    <t>IP-2022-006</t>
-  </si>
-  <si>
-    <t>IP-2022-007</t>
-  </si>
-  <si>
-    <t>IP-2022-008</t>
-  </si>
-  <si>
-    <t>Payment for INV-2022-001</t>
-  </si>
-  <si>
-    <t>Payment for INV-2022-002</t>
-  </si>
-  <si>
-    <t>Payment for INV-2022-003</t>
-  </si>
-  <si>
-    <t>Payment for INV-2022-004</t>
-  </si>
-  <si>
-    <t>Payment for INV-2022-005</t>
-  </si>
-  <si>
-    <t>Payment for INV-2022-006</t>
-  </si>
-  <si>
-    <t>Payment for INV-2022-007</t>
-  </si>
-  <si>
-    <t>Payment for INV-2022-008</t>
-  </si>
-  <si>
-    <t>BP-2022-001</t>
-  </si>
-  <si>
-    <t>BP-2022-002</t>
-  </si>
-  <si>
-    <t>BP-2022-003</t>
-  </si>
-  <si>
-    <t>BP-2022-004</t>
-  </si>
-  <si>
-    <t>BP-2022-005</t>
-  </si>
-  <si>
-    <t>BP-2022-006</t>
-  </si>
-  <si>
-    <t>BP-2022-007</t>
-  </si>
-  <si>
-    <t>BP-2022-008</t>
-  </si>
-  <si>
-    <t>Payment for BILL-2022-001</t>
-  </si>
-  <si>
-    <t>Payment for BILL-2022-002</t>
-  </si>
-  <si>
-    <t>Payment for BILL-2022-003</t>
-  </si>
-  <si>
-    <t>Payment for BILL-2022-004</t>
-  </si>
-  <si>
-    <t>Payment for BILL-2022-005</t>
-  </si>
-  <si>
-    <t>Payment for BILL-2022-006</t>
-  </si>
-  <si>
-    <t>Payment for BILL-2022-007</t>
-  </si>
-  <si>
-    <t>Payment for BILL-2022-008</t>
-  </si>
-  <si>
     <t>bank_account_id</t>
   </si>
   <si>
@@ -1888,21 +1450,6 @@
     <t>is_reconciled</t>
   </si>
   <si>
-    <t>invoice_payment_id</t>
-  </si>
-  <si>
-    <t>bill_payment_id</t>
-  </si>
-  <si>
-    <t>Payment received for INV-2022-001</t>
-  </si>
-  <si>
-    <t>Payment received for INV-2022-002</t>
-  </si>
-  <si>
-    <t>Payment received for INV-2022-003</t>
-  </si>
-  <si>
     <t>deposit</t>
   </si>
   <si>
@@ -2099,6 +1646,225 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>E-678905</t>
+  </si>
+  <si>
+    <t>324-56-7890</t>
+  </si>
+  <si>
+    <t>Kenneth Infante</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>888 Ultra Dr</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>506-888-0000</t>
+  </si>
+  <si>
+    <t>kenneth@acme.com</t>
+  </si>
+  <si>
+    <t>journal_number</t>
+  </si>
+  <si>
+    <t>journal_id</t>
+  </si>
+  <si>
+    <t>FY 2024</t>
+  </si>
+  <si>
+    <t>INV-2024-001</t>
+  </si>
+  <si>
+    <t>INV-2024-002</t>
+  </si>
+  <si>
+    <t>INV-2024-003</t>
+  </si>
+  <si>
+    <t>INV-2024-004</t>
+  </si>
+  <si>
+    <t>INV-2024-005</t>
+  </si>
+  <si>
+    <t>INV-2024-006</t>
+  </si>
+  <si>
+    <t>INV-2024-007</t>
+  </si>
+  <si>
+    <t>INV-2024-008</t>
+  </si>
+  <si>
+    <t>BILL-2024-001</t>
+  </si>
+  <si>
+    <t>BILL-2024-002</t>
+  </si>
+  <si>
+    <t>BILL-2024-003</t>
+  </si>
+  <si>
+    <t>BILL-2024-004</t>
+  </si>
+  <si>
+    <t>BILL-2024-005</t>
+  </si>
+  <si>
+    <t>BILL-2024-006</t>
+  </si>
+  <si>
+    <t>BILL-2024-007</t>
+  </si>
+  <si>
+    <t>BILL-2024-008</t>
+  </si>
+  <si>
+    <t>Payment for INV-2024-001</t>
+  </si>
+  <si>
+    <t>Payment for INV-2024-002</t>
+  </si>
+  <si>
+    <t>Payment for INV-2024-003</t>
+  </si>
+  <si>
+    <t>Payment for INV-2024-004</t>
+  </si>
+  <si>
+    <t>Payment for INV-2024-005</t>
+  </si>
+  <si>
+    <t>Payment for INV-2024-006</t>
+  </si>
+  <si>
+    <t>Payment for INV-2024-007</t>
+  </si>
+  <si>
+    <t>Payment for INV-2024-008</t>
+  </si>
+  <si>
+    <t>Payment for BILL-2024-001</t>
+  </si>
+  <si>
+    <t>Payment for BILL-2024-002</t>
+  </si>
+  <si>
+    <t>Payment for BILL-2024-003</t>
+  </si>
+  <si>
+    <t>Payment for BILL-2024-004</t>
+  </si>
+  <si>
+    <t>Payment for BILL-2024-005</t>
+  </si>
+  <si>
+    <t>Payment for BILL-2024-006</t>
+  </si>
+  <si>
+    <t>Payment for BILL-2024-007</t>
+  </si>
+  <si>
+    <t>Payment for BILL-2024-008</t>
+  </si>
+  <si>
+    <t>Payment received for INV-2024-001</t>
+  </si>
+  <si>
+    <t>Payment received for INV-2024-002</t>
+  </si>
+  <si>
+    <t>Payment received for INV-2024-003</t>
+  </si>
+  <si>
+    <t>cash_transaction_id</t>
+  </si>
+  <si>
+    <t>BILL-1</t>
+  </si>
+  <si>
+    <t>BILL-2</t>
+  </si>
+  <si>
+    <t>BILL-3</t>
+  </si>
+  <si>
+    <t>BILL-4</t>
+  </si>
+  <si>
+    <t>BILL-5</t>
+  </si>
+  <si>
+    <t>BILL-6</t>
+  </si>
+  <si>
+    <t>BILL-7</t>
+  </si>
+  <si>
+    <t>BILL-8</t>
+  </si>
+  <si>
+    <t>INV-1</t>
+  </si>
+  <si>
+    <t>INV-2</t>
+  </si>
+  <si>
+    <t>INV-3</t>
+  </si>
+  <si>
+    <t>INV-4</t>
+  </si>
+  <si>
+    <t>INV-5</t>
+  </si>
+  <si>
+    <t>INV-6</t>
+  </si>
+  <si>
+    <t>INV-7</t>
+  </si>
+  <si>
+    <t>INV-8</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>JE-1</t>
+  </si>
+  <si>
+    <t>JE-2</t>
+  </si>
+  <si>
+    <t>JE-3</t>
+  </si>
+  <si>
+    <t>JE-4</t>
+  </si>
+  <si>
+    <t>JE-5</t>
+  </si>
+  <si>
+    <t>JE-6</t>
+  </si>
+  <si>
+    <t>JE-7</t>
+  </si>
+  <si>
+    <t>JE-8</t>
+  </si>
+  <si>
+    <t>cash_id</t>
   </si>
 </sst>
 </file>
@@ -2122,15 +1888,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2153,35 +1925,35 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2192,513 +1964,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Accounts"/>
-      <sheetName val="Customers"/>
-      <sheetName val="Invoice_Payments"/>
-      <sheetName val="Invoices"/>
-      <sheetName val="Received_Moneys"/>
-      <sheetName val="Invoice_Lines"/>
-      <sheetName val="Received_Money_Lines"/>
-      <sheetName val="Suppliers"/>
-      <sheetName val="Bill_Payments"/>
-      <sheetName val="Bills"/>
-      <sheetName val="Bill_Lines"/>
-      <sheetName val="Spent_Moneys"/>
-      <sheetName val="Spent_Money_Lines"/>
-      <sheetName val="Journals"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>110</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>Business Bank Account</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>120</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>Accounts Receivable</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>130</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>Petty Cash</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>135</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>Provision for Doubtful Debts</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>140</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>Prepayments</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>150</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>Withholding Tax Paid</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>160</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>Inventory</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>165</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>Provision for Stock Obsolence</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>170</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>Land</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>180</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>Building</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>185</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>Accumulated Depreciation on Building</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>190</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>Office Equipment</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>195</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>Accumulated Depreciation on Office Equipment</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>200</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>Computer Equipment</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>205</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>Accumulated Depreciation on Computer Equipment</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>210</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>Furniture</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>215</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>Accumulated Depreciation on Furniture</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>220</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>Motor Vehicles</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>225</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>Accumulated Depreciation on Motor Vehicles</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>310</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>Accounts Payable</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>320</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>Accrued Expenses</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>330</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>Revenue Received in Advance</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>340</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>Wages Payable - Payroll</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>350</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>Wages Deductions Payable</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>360</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v>Income Tax</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>370</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>Finance Lease</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>380</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>Loans Payable</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>410</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>Owner - Investments</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>420</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>Owner - Drawings</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>430</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>Retained Earnings</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>510</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v>Sales</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>520</v>
-          </cell>
-          <cell r="B33" t="str">
-            <v>Other Revenue</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>530</v>
-          </cell>
-          <cell r="B34" t="str">
-            <v>Interest Income</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>540</v>
-          </cell>
-          <cell r="B35" t="str">
-            <v>Dividends Received</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>610</v>
-          </cell>
-          <cell r="B36" t="str">
-            <v>Cost of Goods Sold</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>620</v>
-          </cell>
-          <cell r="B37" t="str">
-            <v>General Expenses</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>630</v>
-          </cell>
-          <cell r="B38" t="str">
-            <v>Supplies Expense</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>640</v>
-          </cell>
-          <cell r="B39" t="str">
-            <v>Advertising</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>650</v>
-          </cell>
-          <cell r="B40" t="str">
-            <v>Consulting &amp; Accounting</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>660</v>
-          </cell>
-          <cell r="B41" t="str">
-            <v>Depreciation</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>670</v>
-          </cell>
-          <cell r="B42" t="str">
-            <v>Entertainment</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>680</v>
-          </cell>
-          <cell r="B43" t="str">
-            <v>Freight &amp; Courier</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>690</v>
-          </cell>
-          <cell r="B44" t="str">
-            <v>Insurance</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>700</v>
-          </cell>
-          <cell r="B45" t="str">
-            <v>Legal expenses</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>710</v>
-          </cell>
-          <cell r="B46" t="str">
-            <v>Electricity</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>720</v>
-          </cell>
-          <cell r="B47" t="str">
-            <v>Motor Vehicle Expenses</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>730</v>
-          </cell>
-          <cell r="B48" t="str">
-            <v>Office Expenses</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>740</v>
-          </cell>
-          <cell r="B49" t="str">
-            <v>Printing &amp; Stationery</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>750</v>
-          </cell>
-          <cell r="B50" t="str">
-            <v>Rates</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>760</v>
-          </cell>
-          <cell r="B51" t="str">
-            <v>Rent</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>770</v>
-          </cell>
-          <cell r="B52" t="str">
-            <v>Repairs and Maintenance</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>780</v>
-          </cell>
-          <cell r="B53" t="str">
-            <v>Salaries</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>790</v>
-          </cell>
-          <cell r="B54" t="str">
-            <v>Subscriptions</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>800</v>
-          </cell>
-          <cell r="B55" t="str">
-            <v>Telephone &amp; Internet</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>810</v>
-          </cell>
-          <cell r="B56" t="str">
-            <v>Travel Expenses</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>820</v>
-          </cell>
-          <cell r="B57" t="str">
-            <v>Bank Fees</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>830</v>
-          </cell>
-          <cell r="B58" t="str">
-            <v>Interest Expense</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>840</v>
-          </cell>
-          <cell r="B59" t="str">
-            <v>Income Tax Expense</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3077,7 +2342,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3092,25 +2357,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
@@ -3127,13 +2392,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3159,10 +2424,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E3" t="s">
         <v>68</v>
@@ -3191,13 +2456,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -3222,658 +2487,40 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>368</v>
+        <v>538</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>166</v>
+        <v>364</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D2" t="s">
-        <v>424</v>
-      </c>
-      <c r="E2" t="s">
-        <v>436</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D3" t="s">
-        <v>425</v>
-      </c>
-      <c r="E3" t="s">
-        <v>437</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D4" t="s">
-        <v>426</v>
-      </c>
-      <c r="E4" t="s">
-        <v>438</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C5" t="s">
-        <v>400</v>
-      </c>
-      <c r="D5" t="s">
-        <v>427</v>
-      </c>
-      <c r="E5" t="s">
-        <v>439</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>374</v>
-      </c>
-      <c r="C6" t="s">
-        <v>401</v>
-      </c>
-      <c r="D6" t="s">
-        <v>428</v>
-      </c>
-      <c r="E6" t="s">
-        <v>440</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C7" t="s">
-        <v>402</v>
-      </c>
-      <c r="D7" t="s">
-        <v>429</v>
-      </c>
-      <c r="E7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>376</v>
-      </c>
-      <c r="C8" t="s">
-        <v>403</v>
-      </c>
-      <c r="D8" t="s">
-        <v>430</v>
-      </c>
-      <c r="E8" t="s">
-        <v>442</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>377</v>
-      </c>
-      <c r="C9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D9" t="s">
-        <v>425</v>
-      </c>
-      <c r="E9" t="s">
-        <v>437</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>378</v>
-      </c>
-      <c r="C10" t="s">
-        <v>405</v>
-      </c>
-      <c r="D10" t="s">
-        <v>427</v>
-      </c>
-      <c r="E10" t="s">
-        <v>443</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>379</v>
-      </c>
-      <c r="C11" t="s">
-        <v>406</v>
-      </c>
-      <c r="D11" t="s">
-        <v>431</v>
-      </c>
-      <c r="E11" t="s">
-        <v>444</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>380</v>
-      </c>
-      <c r="C12" t="s">
-        <v>407</v>
-      </c>
-      <c r="D12" t="s">
-        <v>428</v>
-      </c>
-      <c r="E12" t="s">
-        <v>440</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>381</v>
-      </c>
-      <c r="C13" t="s">
-        <v>408</v>
-      </c>
-      <c r="D13" t="s">
-        <v>429</v>
-      </c>
-      <c r="E13" t="s">
-        <v>445</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>382</v>
-      </c>
-      <c r="C14" t="s">
-        <v>409</v>
-      </c>
-      <c r="D14" t="s">
-        <v>432</v>
-      </c>
-      <c r="E14" t="s">
-        <v>446</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>383</v>
-      </c>
-      <c r="C15" t="s">
-        <v>410</v>
-      </c>
-      <c r="D15" t="s">
-        <v>425</v>
-      </c>
-      <c r="E15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>384</v>
-      </c>
-      <c r="C16" t="s">
-        <v>411</v>
-      </c>
-      <c r="D16" t="s">
-        <v>427</v>
-      </c>
-      <c r="E16" t="s">
-        <v>447</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>385</v>
-      </c>
-      <c r="C17" t="s">
-        <v>412</v>
-      </c>
-      <c r="D17" t="s">
-        <v>433</v>
-      </c>
-      <c r="E17" t="s">
-        <v>448</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>386</v>
-      </c>
-      <c r="C18" t="s">
-        <v>413</v>
-      </c>
-      <c r="D18" t="s">
-        <v>428</v>
-      </c>
-      <c r="E18" t="s">
-        <v>440</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>387</v>
-      </c>
-      <c r="C19" t="s">
-        <v>414</v>
-      </c>
-      <c r="D19" t="s">
-        <v>429</v>
-      </c>
-      <c r="E19" t="s">
-        <v>449</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>388</v>
-      </c>
-      <c r="C20" t="s">
-        <v>415</v>
-      </c>
-      <c r="D20" t="s">
-        <v>434</v>
-      </c>
-      <c r="E20" t="s">
-        <v>450</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>389</v>
-      </c>
-      <c r="C21" t="s">
-        <v>416</v>
-      </c>
-      <c r="D21" t="s">
-        <v>425</v>
-      </c>
-      <c r="E21" t="s">
-        <v>437</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>390</v>
-      </c>
-      <c r="C22" t="s">
-        <v>417</v>
-      </c>
-      <c r="D22" t="s">
-        <v>427</v>
-      </c>
-      <c r="E22" t="s">
-        <v>451</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>391</v>
-      </c>
-      <c r="C23" t="s">
-        <v>418</v>
-      </c>
-      <c r="D23" t="s">
-        <v>435</v>
-      </c>
-      <c r="E23" t="s">
-        <v>452</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>392</v>
-      </c>
-      <c r="C24" t="s">
-        <v>419</v>
-      </c>
-      <c r="D24" t="s">
-        <v>428</v>
-      </c>
-      <c r="E24" t="s">
-        <v>440</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>393</v>
-      </c>
-      <c r="C25" t="s">
-        <v>420</v>
-      </c>
-      <c r="D25" t="s">
-        <v>429</v>
-      </c>
-      <c r="E25" t="s">
-        <v>453</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>394</v>
-      </c>
-      <c r="C26" t="s">
-        <v>421</v>
-      </c>
-      <c r="D26" t="s">
-        <v>425</v>
-      </c>
-      <c r="E26" t="s">
-        <v>437</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>395</v>
-      </c>
-      <c r="C27" t="s">
-        <v>422</v>
-      </c>
-      <c r="D27" t="s">
-        <v>427</v>
-      </c>
-      <c r="E27" t="s">
-        <v>454</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C28" t="s">
-        <v>423</v>
-      </c>
-      <c r="D28" t="s">
-        <v>429</v>
-      </c>
-      <c r="E28" t="s">
-        <v>455</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
-        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -3883,10 +2530,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3903,418 +2550,334 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>457</v>
+        <v>539</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>460</v>
-      </c>
-      <c r="E2">
-        <v>50000</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>461</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>437</v>
-      </c>
-      <c r="E4">
-        <v>2000</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>462</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>463</v>
-      </c>
-      <c r="E6">
-        <v>500</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>462</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>464</v>
-      </c>
-      <c r="E8">
-        <v>7500</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>465</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>466</v>
-      </c>
-      <c r="E10">
-        <v>350</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>462</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>467</v>
-      </c>
-      <c r="E12">
-        <v>12000</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>462</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>468</v>
-      </c>
-      <c r="E14">
-        <v>5000</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>462</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>437</v>
-      </c>
-      <c r="E16">
-        <v>2000</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>462</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>2000</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F17" xr:uid="{00000000-0001-0000-0A00-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>432</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>469</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45306</v>
+      </c>
+      <c r="E2" s="5">
+        <v>45336</v>
+      </c>
+      <c r="F2">
+        <v>2675</v>
+      </c>
+      <c r="G2">
+        <v>175</v>
+      </c>
+      <c r="H2" t="s">
+        <v>438</v>
+      </c>
+      <c r="I2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>99</v>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+      <c r="D3" s="5">
+        <v>45311</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45341</v>
+      </c>
+      <c r="F3">
+        <v>4815</v>
+      </c>
+      <c r="G3">
+        <v>315</v>
+      </c>
+      <c r="H3" t="s">
+        <v>439</v>
+      </c>
+      <c r="I3" t="s">
+        <v>446</v>
+      </c>
+      <c r="J3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>470</v>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+      <c r="D4" s="5">
+        <v>45327</v>
+      </c>
+      <c r="E4" s="5">
+        <v>45358</v>
+      </c>
+      <c r="F4">
+        <v>1070</v>
+      </c>
+      <c r="G4">
+        <v>70</v>
+      </c>
+      <c r="H4" t="s">
+        <v>440</v>
+      </c>
+      <c r="I4" t="s">
+        <v>446</v>
+      </c>
+      <c r="J4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>471</v>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45337</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45368</v>
+      </c>
+      <c r="F5">
+        <v>3210</v>
+      </c>
+      <c r="G5">
+        <v>210</v>
+      </c>
+      <c r="H5" t="s">
+        <v>441</v>
+      </c>
+      <c r="I5" t="s">
+        <v>446</v>
+      </c>
+      <c r="J5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>472</v>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>477</v>
+        <v>545</v>
+      </c>
+      <c r="D6" s="5">
+        <v>45352</v>
+      </c>
+      <c r="E6" s="5">
+        <v>45382</v>
+      </c>
+      <c r="F6">
+        <v>5350</v>
+      </c>
+      <c r="G6">
+        <v>350</v>
+      </c>
+      <c r="H6" t="s">
+        <v>442</v>
+      </c>
+      <c r="I6" t="s">
+        <v>446</v>
+      </c>
+      <c r="J6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="D7" s="5">
+        <v>45366</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45396</v>
+      </c>
+      <c r="F7">
+        <v>2140</v>
+      </c>
+      <c r="G7">
+        <v>140</v>
+      </c>
+      <c r="H7" t="s">
+        <v>443</v>
+      </c>
+      <c r="I7" t="s">
+        <v>446</v>
+      </c>
+      <c r="J7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D8" s="5">
+        <v>45383</v>
+      </c>
+      <c r="E8" s="5">
+        <v>45413</v>
+      </c>
+      <c r="F8">
+        <v>3745</v>
+      </c>
+      <c r="G8">
+        <v>245</v>
+      </c>
+      <c r="H8" t="s">
+        <v>444</v>
+      </c>
+      <c r="I8" t="s">
+        <v>446</v>
+      </c>
+      <c r="J8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="D9" s="5">
+        <v>45397</v>
+      </c>
+      <c r="E9" s="5">
+        <v>45427</v>
+      </c>
+      <c r="F9">
+        <v>1605</v>
+      </c>
+      <c r="G9">
+        <v>105</v>
+      </c>
+      <c r="H9" t="s">
+        <v>445</v>
+      </c>
+      <c r="I9" t="s">
+        <v>446</v>
+      </c>
+      <c r="J9" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -4323,11 +2886,97 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4361,40 +3010,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>478</v>
+        <v>391</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>479</v>
+        <v>392</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>480</v>
+        <v>393</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>481</v>
+        <v>394</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>482</v>
+        <v>395</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>483</v>
+        <v>396</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>484</v>
+        <v>397</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>485</v>
+        <v>398</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>486</v>
+        <v>399</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>487</v>
+        <v>400</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>488</v>
+        <v>401</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>17</v>
@@ -4405,13 +3054,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>402</v>
       </c>
       <c r="C2" t="s">
-        <v>499</v>
+        <v>412</v>
       </c>
       <c r="D2" t="s">
-        <v>509</v>
+        <v>422</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -4447,7 +3096,7 @@
         <v>37</v>
       </c>
       <c r="P2" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -4455,13 +3104,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>490</v>
+        <v>403</v>
       </c>
       <c r="C3" t="s">
-        <v>500</v>
+        <v>413</v>
       </c>
       <c r="D3" t="s">
-        <v>510</v>
+        <v>423</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -4497,7 +3146,7 @@
         <v>37</v>
       </c>
       <c r="P3" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -4505,13 +3154,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>491</v>
+        <v>404</v>
       </c>
       <c r="C4" t="s">
-        <v>501</v>
+        <v>414</v>
       </c>
       <c r="D4" t="s">
-        <v>511</v>
+        <v>424</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -4547,7 +3196,7 @@
         <v>37</v>
       </c>
       <c r="P4" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -4555,13 +3204,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>492</v>
+        <v>405</v>
       </c>
       <c r="C5" t="s">
-        <v>502</v>
+        <v>415</v>
       </c>
       <c r="D5" t="s">
-        <v>512</v>
+        <v>425</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -4597,7 +3246,7 @@
         <v>37</v>
       </c>
       <c r="P5" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -4605,13 +3254,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>493</v>
+        <v>406</v>
       </c>
       <c r="C6" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="D6" t="s">
-        <v>513</v>
+        <v>426</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -4647,7 +3296,7 @@
         <v>37</v>
       </c>
       <c r="P6" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -4655,13 +3304,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>494</v>
+        <v>407</v>
       </c>
       <c r="C7" t="s">
-        <v>504</v>
+        <v>417</v>
       </c>
       <c r="D7" t="s">
-        <v>514</v>
+        <v>427</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -4697,7 +3346,7 @@
         <v>37</v>
       </c>
       <c r="P7" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -4705,13 +3354,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>495</v>
+        <v>408</v>
       </c>
       <c r="C8" t="s">
-        <v>505</v>
+        <v>418</v>
       </c>
       <c r="D8" t="s">
-        <v>515</v>
+        <v>428</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -4738,7 +3387,7 @@
         <v>37</v>
       </c>
       <c r="P8" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -4746,13 +3395,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>496</v>
+        <v>409</v>
       </c>
       <c r="C9" t="s">
-        <v>506</v>
+        <v>419</v>
       </c>
       <c r="D9" t="s">
-        <v>516</v>
+        <v>429</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -4779,7 +3428,7 @@
         <v>37</v>
       </c>
       <c r="P9" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -4787,13 +3436,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>497</v>
+        <v>410</v>
       </c>
       <c r="C10" t="s">
-        <v>507</v>
+        <v>420</v>
       </c>
       <c r="D10" t="s">
-        <v>517</v>
+        <v>430</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -4820,7 +3469,7 @@
         <v>37</v>
       </c>
       <c r="P10" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -4828,13 +3477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>498</v>
+        <v>411</v>
       </c>
       <c r="C11" t="s">
-        <v>508</v>
+        <v>421</v>
       </c>
       <c r="D11" t="s">
-        <v>518</v>
+        <v>431</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4870,313 +3519,7 @@
         <v>37</v>
       </c>
       <c r="P11" t="s">
-        <v>456</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>525</v>
-      </c>
-      <c r="D2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E2" t="s">
-        <v>535</v>
-      </c>
-      <c r="F2">
-        <v>2675</v>
-      </c>
-      <c r="G2">
-        <v>175</v>
-      </c>
-      <c r="H2" t="s">
-        <v>541</v>
-      </c>
-      <c r="I2" t="s">
-        <v>549</v>
-      </c>
-      <c r="J2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>526</v>
-      </c>
-      <c r="D3" t="s">
         <v>373</v>
-      </c>
-      <c r="E3" t="s">
-        <v>536</v>
-      </c>
-      <c r="F3">
-        <v>4815</v>
-      </c>
-      <c r="G3">
-        <v>315</v>
-      </c>
-      <c r="H3" t="s">
-        <v>542</v>
-      </c>
-      <c r="I3" t="s">
-        <v>549</v>
-      </c>
-      <c r="J3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>527</v>
-      </c>
-      <c r="D4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E4" t="s">
-        <v>537</v>
-      </c>
-      <c r="F4">
-        <v>1070</v>
-      </c>
-      <c r="G4">
-        <v>70</v>
-      </c>
-      <c r="H4" t="s">
-        <v>543</v>
-      </c>
-      <c r="I4" t="s">
-        <v>549</v>
-      </c>
-      <c r="J4" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>528</v>
-      </c>
-      <c r="D5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E5" t="s">
-        <v>538</v>
-      </c>
-      <c r="F5">
-        <v>3210</v>
-      </c>
-      <c r="G5">
-        <v>210</v>
-      </c>
-      <c r="H5" t="s">
-        <v>544</v>
-      </c>
-      <c r="I5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>529</v>
-      </c>
-      <c r="D6" t="s">
-        <v>533</v>
-      </c>
-      <c r="E6" t="s">
-        <v>387</v>
-      </c>
-      <c r="F6">
-        <v>5350</v>
-      </c>
-      <c r="G6">
-        <v>350</v>
-      </c>
-      <c r="H6" t="s">
-        <v>545</v>
-      </c>
-      <c r="I6" t="s">
-        <v>549</v>
-      </c>
-      <c r="J6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>530</v>
-      </c>
-      <c r="D7" t="s">
-        <v>384</v>
-      </c>
-      <c r="E7" t="s">
-        <v>539</v>
-      </c>
-      <c r="F7">
-        <v>2140</v>
-      </c>
-      <c r="G7">
-        <v>140</v>
-      </c>
-      <c r="H7" t="s">
-        <v>546</v>
-      </c>
-      <c r="I7" t="s">
-        <v>549</v>
-      </c>
-      <c r="J7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>531</v>
-      </c>
-      <c r="D8" t="s">
-        <v>534</v>
-      </c>
-      <c r="E8" t="s">
-        <v>540</v>
-      </c>
-      <c r="F8">
-        <v>3745</v>
-      </c>
-      <c r="G8">
-        <v>245</v>
-      </c>
-      <c r="H8" t="s">
-        <v>547</v>
-      </c>
-      <c r="I8" t="s">
-        <v>549</v>
-      </c>
-      <c r="J8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>532</v>
-      </c>
-      <c r="D9" t="s">
-        <v>390</v>
-      </c>
-      <c r="E9" t="s">
-        <v>395</v>
-      </c>
-      <c r="F9">
-        <v>1605</v>
-      </c>
-      <c r="G9">
-        <v>105</v>
-      </c>
-      <c r="H9" t="s">
-        <v>548</v>
-      </c>
-      <c r="I9" t="s">
-        <v>549</v>
-      </c>
-      <c r="J9" t="s">
-        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -5189,13 +3532,17 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -5203,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>550</v>
+        <v>447</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>551</v>
+        <v>448</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>552</v>
+        <v>449</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>553</v>
+        <v>450</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>482</v>
+        <v>395</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>523</v>
+        <v>436</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>618</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -5238,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>489</v>
+        <v>402</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -5267,7 +3614,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>494</v>
+        <v>407</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -5296,7 +3643,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>491</v>
+        <v>404</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -5325,7 +3672,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>492</v>
+        <v>405</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -5354,7 +3701,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>495</v>
+        <v>408</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -5383,7 +3730,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>493</v>
+        <v>406</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -5412,7 +3759,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>496</v>
+        <v>409</v>
       </c>
       <c r="E8">
         <v>40</v>
@@ -5441,7 +3788,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>490</v>
+        <v>403</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -5470,7 +3817,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>494</v>
+        <v>407</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -5497,37 +3844,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>554</v>
+        <v>451</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>555</v>
+        <v>452</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>521</v>
+        <v>434</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>522</v>
+        <v>435</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>523</v>
+        <v>436</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>524</v>
+        <v>437</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>17</v>
@@ -5541,13 +3901,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>556</v>
-      </c>
-      <c r="D2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E2" t="s">
-        <v>565</v>
+        <v>549</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45296</v>
+      </c>
+      <c r="E2" s="5">
+        <v>45326</v>
       </c>
       <c r="F2">
         <v>535</v>
@@ -5556,13 +3916,13 @@
         <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>463</v>
+        <v>377</v>
       </c>
       <c r="I2" t="s">
-        <v>549</v>
+        <v>446</v>
       </c>
       <c r="J2" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -5573,13 +3933,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>557</v>
-      </c>
-      <c r="D3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E3" t="s">
-        <v>535</v>
+        <v>550</v>
+      </c>
+      <c r="D3" s="5">
+        <v>45306</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45336</v>
       </c>
       <c r="F3">
         <v>3210</v>
@@ -5588,13 +3948,13 @@
         <v>210</v>
       </c>
       <c r="H3" t="s">
-        <v>567</v>
+        <v>453</v>
       </c>
       <c r="I3" t="s">
-        <v>549</v>
+        <v>446</v>
       </c>
       <c r="J3" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5605,13 +3965,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>558</v>
-      </c>
-      <c r="D4" t="s">
-        <v>564</v>
-      </c>
-      <c r="E4" t="s">
-        <v>566</v>
+        <v>551</v>
+      </c>
+      <c r="D4" s="5">
+        <v>45323</v>
+      </c>
+      <c r="E4" s="5">
+        <v>45354</v>
       </c>
       <c r="F4">
         <v>2140</v>
@@ -5620,13 +3980,13 @@
         <v>140</v>
       </c>
       <c r="H4" t="s">
-        <v>542</v>
+        <v>439</v>
       </c>
       <c r="I4" t="s">
-        <v>549</v>
+        <v>446</v>
       </c>
       <c r="J4" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5637,13 +3997,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>559</v>
-      </c>
-      <c r="D5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E5" t="s">
-        <v>538</v>
+        <v>552</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45337</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45368</v>
       </c>
       <c r="F5">
         <v>1070</v>
@@ -5652,13 +4012,13 @@
         <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>568</v>
+        <v>454</v>
       </c>
       <c r="I5" t="s">
-        <v>549</v>
+        <v>446</v>
       </c>
       <c r="J5" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -5669,13 +4029,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>560</v>
-      </c>
-      <c r="D6" t="s">
-        <v>533</v>
-      </c>
-      <c r="E6" t="s">
-        <v>387</v>
+        <v>553</v>
+      </c>
+      <c r="D6" s="5">
+        <v>45352</v>
+      </c>
+      <c r="E6" s="5">
+        <v>45382</v>
       </c>
       <c r="F6">
         <v>428</v>
@@ -5684,13 +4044,13 @@
         <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>569</v>
+        <v>455</v>
       </c>
       <c r="I6" t="s">
-        <v>549</v>
+        <v>446</v>
       </c>
       <c r="J6" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5700,14 +4060,14 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>561</v>
-      </c>
-      <c r="D7" t="s">
-        <v>384</v>
-      </c>
-      <c r="E7" t="s">
-        <v>539</v>
+      <c r="C7" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D7" s="5">
+        <v>45366</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45396</v>
       </c>
       <c r="F7">
         <v>1605</v>
@@ -5716,13 +4076,13 @@
         <v>105</v>
       </c>
       <c r="H7" t="s">
-        <v>546</v>
+        <v>443</v>
       </c>
       <c r="I7" t="s">
-        <v>549</v>
+        <v>446</v>
       </c>
       <c r="J7" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5732,14 +4092,14 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>562</v>
-      </c>
-      <c r="D8" t="s">
-        <v>534</v>
-      </c>
-      <c r="E8" t="s">
-        <v>540</v>
+      <c r="C8" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="D8" s="5">
+        <v>45383</v>
+      </c>
+      <c r="E8" s="5">
+        <v>45413</v>
       </c>
       <c r="F8">
         <v>2675</v>
@@ -5748,13 +4108,13 @@
         <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>543</v>
+        <v>440</v>
       </c>
       <c r="I8" t="s">
-        <v>549</v>
+        <v>446</v>
       </c>
       <c r="J8" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -5764,14 +4124,14 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>563</v>
-      </c>
-      <c r="D9" t="s">
-        <v>390</v>
-      </c>
-      <c r="E9" t="s">
-        <v>395</v>
+      <c r="C9" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D9" s="5">
+        <v>45397</v>
+      </c>
+      <c r="E9" s="5">
+        <v>45427</v>
       </c>
       <c r="F9">
         <v>3745</v>
@@ -5780,13 +4140,13 @@
         <v>245</v>
       </c>
       <c r="H9" t="s">
-        <v>570</v>
+        <v>456</v>
       </c>
       <c r="I9" t="s">
-        <v>549</v>
+        <v>446</v>
       </c>
       <c r="J9" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -5799,38 +4159,49 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>571</v>
+        <v>457</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>551</v>
+        <v>448</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>552</v>
+        <v>449</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>553</v>
+        <v>450</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>482</v>
+        <v>395</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>523</v>
+        <v>436</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>618</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -5844,7 +4215,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>493</v>
+        <v>406</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -5873,7 +4244,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>494</v>
+        <v>407</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -5902,7 +4273,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>489</v>
+        <v>402</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -5931,7 +4302,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>498</v>
+        <v>411</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -5960,7 +4331,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>491</v>
+        <v>404</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -5989,7 +4360,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>492</v>
+        <v>405</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -6018,7 +4389,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>497</v>
+        <v>410</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -6047,7 +4418,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>493</v>
+        <v>406</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -6076,7 +4447,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>494</v>
+        <v>407</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -6100,233 +4471,709 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="H26" sqref="A26:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>367</v>
+        <v>593</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>550</v>
+        <v>363</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>572</v>
+        <v>458</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>573</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>166</v>
+        <v>460</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>594</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45296</v>
       </c>
       <c r="D2">
-        <v>2675</v>
+        <v>50000</v>
       </c>
       <c r="E2" t="s">
-        <v>575</v>
-      </c>
-      <c r="F2" t="s">
-        <v>583</v>
+        <v>376</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>28</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+        <v>595</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45301</v>
       </c>
       <c r="D3">
-        <v>4815</v>
+        <v>-2000</v>
       </c>
       <c r="E3" t="s">
-        <v>576</v>
-      </c>
-      <c r="F3" t="s">
-        <v>584</v>
+        <v>372</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>39</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
-      </c>
-      <c r="C4">
+        <v>577</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45306</v>
+      </c>
+      <c r="D4">
+        <v>-535</v>
+      </c>
+      <c r="E4" t="s">
+        <v>565</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>1070</v>
-      </c>
-      <c r="E4" t="s">
-        <v>577</v>
-      </c>
-      <c r="F4" t="s">
-        <v>585</v>
-      </c>
       <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
-      </c>
-      <c r="C5">
+        <v>596</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45306</v>
+      </c>
+      <c r="D5">
+        <v>-500</v>
+      </c>
+      <c r="E5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>3210</v>
-      </c>
-      <c r="E5" t="s">
-        <v>578</v>
-      </c>
-      <c r="F5" t="s">
-        <v>586</v>
-      </c>
       <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>41</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C6">
+        <v>585</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45311</v>
+      </c>
+      <c r="D6">
+        <v>2675</v>
+      </c>
+      <c r="E6" t="s">
+        <v>557</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>5350</v>
-      </c>
-      <c r="E6" t="s">
-        <v>579</v>
-      </c>
-      <c r="F6" t="s">
-        <v>587</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+        <v>597</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45311</v>
       </c>
       <c r="D7">
-        <v>2140</v>
+        <v>7500</v>
       </c>
       <c r="E7" t="s">
-        <v>580</v>
-      </c>
-      <c r="F7" t="s">
-        <v>588</v>
+        <v>378</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>388</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
+        <v>578</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45316</v>
       </c>
       <c r="D8">
-        <v>3745</v>
+        <v>-3210</v>
       </c>
       <c r="E8" t="s">
-        <v>581</v>
-      </c>
-      <c r="F8" t="s">
-        <v>589</v>
+        <v>566</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C9">
+        <v>586</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45316</v>
+      </c>
+      <c r="D9">
+        <v>4815</v>
+      </c>
+      <c r="E9" t="s">
+        <v>558</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>598</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45316</v>
+      </c>
+      <c r="D10">
+        <v>-350</v>
+      </c>
+      <c r="E10" t="s">
+        <v>379</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>599</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45322</v>
+      </c>
+      <c r="D11">
+        <v>-12000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>380</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>38</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>600</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45327</v>
+      </c>
+      <c r="D12">
+        <v>-5000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>381</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>579</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45332</v>
+      </c>
+      <c r="D13">
+        <v>-2140</v>
+      </c>
+      <c r="E13" t="s">
+        <v>567</v>
+      </c>
+      <c r="F13">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>587</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45332</v>
+      </c>
+      <c r="D14">
+        <v>1070</v>
+      </c>
+      <c r="E14" t="s">
+        <v>559</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>601</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45332</v>
+      </c>
+      <c r="D15">
+        <v>-2000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>372</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>588</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45342</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3210</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>580</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45347</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-1070</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>589</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45356</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5350</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>581</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45361</v>
+      </c>
+      <c r="D19" s="4">
+        <v>-428</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>590</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45371</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2140</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>582</v>
+      </c>
+      <c r="C21" s="5">
+        <v>45376</v>
+      </c>
+      <c r="D21" s="4">
+        <v>-1605</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>591</v>
+      </c>
+      <c r="C22" s="5">
+        <v>45387</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3745</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>583</v>
+      </c>
+      <c r="C23" s="5">
+        <v>45392</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-2675</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>592</v>
+      </c>
+      <c r="C24" s="5">
+        <v>45402</v>
+      </c>
+      <c r="D24" s="4">
         <v>1605</v>
       </c>
-      <c r="E9" t="s">
-        <v>582</v>
-      </c>
-      <c r="F9" t="s">
-        <v>590</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
+      <c r="E24" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>584</v>
+      </c>
+      <c r="C25" s="5">
+        <v>45407</v>
+      </c>
+      <c r="D25" s="4">
+        <v>-3745</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J25" xr:uid="{00000000-0001-0000-1200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6341,7 +5188,7 @@
     <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6366,11 +5213,8 @@
       <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6392,12 +5236,8 @@
       <c r="H2" t="s">
         <v>151</v>
       </c>
-      <c r="I2" t="str">
-        <f>_xlfn.XLOOKUP(C2,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6422,12 +5262,8 @@
       <c r="H3" t="s">
         <v>151</v>
       </c>
-      <c r="I3" t="str">
-        <f>_xlfn.XLOOKUP(C3,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6452,12 +5288,8 @@
       <c r="H4" t="s">
         <v>151</v>
       </c>
-      <c r="I4" t="str">
-        <f>_xlfn.XLOOKUP(C4,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6482,12 +5314,8 @@
       <c r="H5" t="s">
         <v>151</v>
       </c>
-      <c r="I5" t="str">
-        <f>_xlfn.XLOOKUP(C5,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6512,12 +5340,8 @@
       <c r="H6" t="s">
         <v>151</v>
       </c>
-      <c r="I6" t="str">
-        <f>_xlfn.XLOOKUP(C6,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6542,12 +5366,8 @@
       <c r="H7" t="s">
         <v>151</v>
       </c>
-      <c r="I7" t="str">
-        <f>_xlfn.XLOOKUP(C7,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6572,12 +5392,8 @@
       <c r="H8" t="s">
         <v>151</v>
       </c>
-      <c r="I8">
-        <f>_xlfn.XLOOKUP(C8,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6602,12 +5418,8 @@
       <c r="H9" t="s">
         <v>151</v>
       </c>
-      <c r="I9">
-        <f>_xlfn.XLOOKUP(C9,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6632,12 +5444,8 @@
       <c r="H10" t="s">
         <v>151</v>
       </c>
-      <c r="I10" t="str">
-        <f>_xlfn.XLOOKUP(C10,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6662,12 +5470,8 @@
       <c r="H11" t="s">
         <v>151</v>
       </c>
-      <c r="I11" t="str">
-        <f>_xlfn.XLOOKUP(C11,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6692,12 +5496,8 @@
       <c r="H12" t="s">
         <v>151</v>
       </c>
-      <c r="I12" t="str">
-        <f>_xlfn.XLOOKUP(C12,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6722,12 +5522,8 @@
       <c r="H13" t="s">
         <v>151</v>
       </c>
-      <c r="I13" t="str">
-        <f>_xlfn.XLOOKUP(C13,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6752,12 +5548,8 @@
       <c r="H14" t="s">
         <v>151</v>
       </c>
-      <c r="I14" t="str">
-        <f>_xlfn.XLOOKUP(C14,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6782,12 +5574,8 @@
       <c r="H15" t="s">
         <v>151</v>
       </c>
-      <c r="I15" t="str">
-        <f>_xlfn.XLOOKUP(C15,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6812,12 +5600,8 @@
       <c r="H16" t="s">
         <v>151</v>
       </c>
-      <c r="I16">
-        <f>_xlfn.XLOOKUP(C16,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6842,12 +5626,8 @@
       <c r="H17" t="s">
         <v>151</v>
       </c>
-      <c r="I17" t="str">
-        <f>_xlfn.XLOOKUP(C17,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6869,12 +5649,8 @@
       <c r="H18" t="s">
         <v>151</v>
       </c>
-      <c r="I18" t="str">
-        <f>_xlfn.XLOOKUP(C18,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6899,12 +5675,8 @@
       <c r="H19" t="s">
         <v>151</v>
       </c>
-      <c r="I19" t="str">
-        <f>_xlfn.XLOOKUP(C19,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6929,12 +5701,8 @@
       <c r="H20" t="s">
         <v>151</v>
       </c>
-      <c r="I20">
-        <f>_xlfn.XLOOKUP(C20,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6959,12 +5727,8 @@
       <c r="H21" t="s">
         <v>151</v>
       </c>
-      <c r="I21">
-        <f>_xlfn.XLOOKUP(C21,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6989,12 +5753,8 @@
       <c r="H22" t="s">
         <v>151</v>
       </c>
-      <c r="I22" t="str">
-        <f>_xlfn.XLOOKUP(C22,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7019,12 +5779,8 @@
       <c r="H23" t="s">
         <v>151</v>
       </c>
-      <c r="I23" t="str">
-        <f>_xlfn.XLOOKUP(C23,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7049,12 +5805,8 @@
       <c r="H24" t="s">
         <v>151</v>
       </c>
-      <c r="I24" t="str">
-        <f>_xlfn.XLOOKUP(C24,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7079,12 +5831,8 @@
       <c r="H25" t="s">
         <v>151</v>
       </c>
-      <c r="I25" t="str">
-        <f>_xlfn.XLOOKUP(C25,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7109,12 +5857,8 @@
       <c r="H26" t="s">
         <v>151</v>
       </c>
-      <c r="I26" t="str">
-        <f>_xlfn.XLOOKUP(C26,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7139,12 +5883,8 @@
       <c r="H27" t="s">
         <v>151</v>
       </c>
-      <c r="I27" t="str">
-        <f>_xlfn.XLOOKUP(C27,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7166,12 +5906,8 @@
       <c r="H28" t="s">
         <v>151</v>
       </c>
-      <c r="I28" t="str">
-        <f>_xlfn.XLOOKUP(C28,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7196,12 +5932,8 @@
       <c r="H29" t="s">
         <v>151</v>
       </c>
-      <c r="I29" t="str">
-        <f>_xlfn.XLOOKUP(C29,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7226,12 +5958,8 @@
       <c r="H30" t="s">
         <v>151</v>
       </c>
-      <c r="I30">
-        <f>_xlfn.XLOOKUP(C30,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v>430</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7256,12 +5984,8 @@
       <c r="H31" t="s">
         <v>151</v>
       </c>
-      <c r="I31" t="str">
-        <f>_xlfn.XLOOKUP(C31,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7283,12 +6007,8 @@
       <c r="H32" t="s">
         <v>151</v>
       </c>
-      <c r="I32" t="str">
-        <f>_xlfn.XLOOKUP(C32,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7313,12 +6033,8 @@
       <c r="H33" t="s">
         <v>151</v>
       </c>
-      <c r="I33" t="str">
-        <f>_xlfn.XLOOKUP(C33,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7343,12 +6059,8 @@
       <c r="H34" t="s">
         <v>151</v>
       </c>
-      <c r="I34" t="str">
-        <f>_xlfn.XLOOKUP(C34,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7373,12 +6085,8 @@
       <c r="H35" t="s">
         <v>151</v>
       </c>
-      <c r="I35">
-        <f>_xlfn.XLOOKUP(C35,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v>530</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7403,12 +6111,8 @@
       <c r="H36" t="s">
         <v>151</v>
       </c>
-      <c r="I36" t="str">
-        <f>_xlfn.XLOOKUP(C36,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7430,12 +6134,8 @@
       <c r="H37" t="s">
         <v>151</v>
       </c>
-      <c r="I37" t="str">
-        <f>_xlfn.XLOOKUP(C37,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7460,12 +6160,8 @@
       <c r="H38" t="s">
         <v>151</v>
       </c>
-      <c r="I38">
-        <f>_xlfn.XLOOKUP(C38,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v>610</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7490,12 +6186,8 @@
       <c r="H39" t="s">
         <v>151</v>
       </c>
-      <c r="I39" t="str">
-        <f>_xlfn.XLOOKUP(C39,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7520,12 +6212,8 @@
       <c r="H40" t="s">
         <v>151</v>
       </c>
-      <c r="I40" t="str">
-        <f>_xlfn.XLOOKUP(C40,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7550,12 +6238,8 @@
       <c r="H41" t="s">
         <v>151</v>
       </c>
-      <c r="I41" t="str">
-        <f>_xlfn.XLOOKUP(C41,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7580,12 +6264,8 @@
       <c r="H42" t="s">
         <v>151</v>
       </c>
-      <c r="I42" t="str">
-        <f>_xlfn.XLOOKUP(C42,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7610,12 +6290,8 @@
       <c r="H43" t="s">
         <v>151</v>
       </c>
-      <c r="I43" t="str">
-        <f>_xlfn.XLOOKUP(C43,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7640,12 +6316,8 @@
       <c r="H44" t="s">
         <v>151</v>
       </c>
-      <c r="I44" t="str">
-        <f>_xlfn.XLOOKUP(C44,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7670,12 +6342,8 @@
       <c r="H45" t="s">
         <v>151</v>
       </c>
-      <c r="I45" t="str">
-        <f>_xlfn.XLOOKUP(C45,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7700,12 +6368,8 @@
       <c r="H46" t="s">
         <v>151</v>
       </c>
-      <c r="I46">
-        <f>_xlfn.XLOOKUP(C46,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v>830</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7729,10 +6393,6 @@
       </c>
       <c r="H47" t="s">
         <v>151</v>
-      </c>
-      <c r="I47" t="str">
-        <f>_xlfn.XLOOKUP(C47,[1]Accounts!$B$2:$B$59,[1]Accounts!$A$2:$A$59,"")</f>
-        <v/>
       </c>
     </row>
   </sheetData>
@@ -7741,680 +6401,469 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>367</v>
+        <v>461</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>571</v>
+        <v>363</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>572</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>573</v>
+        <v>458</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>166</v>
+        <v>462</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>535</v>
-      </c>
-      <c r="E2" t="s">
-        <v>591</v>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45296</v>
+      </c>
+      <c r="D2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E2">
+        <v>50000</v>
       </c>
       <c r="F2" t="s">
-        <v>599</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3210</v>
-      </c>
-      <c r="E3" t="s">
-        <v>592</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45301</v>
+      </c>
+      <c r="D3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E3">
+        <v>-2000</v>
       </c>
       <c r="F3" t="s">
-        <v>600</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>377</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>2140</v>
-      </c>
-      <c r="E4" t="s">
-        <v>593</v>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45306</v>
+      </c>
+      <c r="D4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4">
+        <v>-500</v>
       </c>
       <c r="F4" t="s">
-        <v>601</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>380</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>1070</v>
-      </c>
-      <c r="E5" t="s">
-        <v>594</v>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45306</v>
+      </c>
+      <c r="D5" t="s">
+        <v>565</v>
+      </c>
+      <c r="E5">
+        <v>-535</v>
       </c>
       <c r="F5" t="s">
-        <v>602</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>383</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>428</v>
-      </c>
-      <c r="E6" t="s">
-        <v>595</v>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45311</v>
+      </c>
+      <c r="D6" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6">
+        <v>7500</v>
       </c>
       <c r="F6" t="s">
-        <v>603</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>386</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>1605</v>
-      </c>
-      <c r="E7" t="s">
-        <v>596</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45311</v>
+      </c>
+      <c r="D7" t="s">
+        <v>573</v>
+      </c>
+      <c r="E7">
+        <v>2675</v>
       </c>
       <c r="F7" t="s">
-        <v>604</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>389</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>2675</v>
-      </c>
-      <c r="E8" t="s">
-        <v>597</v>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45316</v>
+      </c>
+      <c r="D8" t="s">
+        <v>369</v>
+      </c>
+      <c r="E8">
+        <v>-350</v>
       </c>
       <c r="F8" t="s">
-        <v>605</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>392</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>3745</v>
-      </c>
-      <c r="E9" t="s">
-        <v>598</v>
-      </c>
-      <c r="F9" t="s">
-        <v>606</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:L15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D2" t="s">
-        <v>424</v>
-      </c>
-      <c r="E2">
-        <v>50000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>615</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D3" t="s">
-        <v>425</v>
-      </c>
-      <c r="E3">
-        <v>-2000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>616</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>372</v>
-      </c>
-      <c r="D4" t="s">
-        <v>426</v>
-      </c>
-      <c r="E4">
-        <v>-500</v>
-      </c>
-      <c r="F4" t="s">
-        <v>616</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>372</v>
-      </c>
-      <c r="D5" t="s">
-        <v>599</v>
-      </c>
-      <c r="E5">
-        <v>-535</v>
-      </c>
-      <c r="F5" t="s">
-        <v>616</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>373</v>
-      </c>
-      <c r="D6" t="s">
-        <v>427</v>
-      </c>
-      <c r="E6">
-        <v>7500</v>
-      </c>
-      <c r="F6" t="s">
-        <v>615</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="L6" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D7" t="s">
-        <v>612</v>
-      </c>
-      <c r="E7">
-        <v>2675</v>
-      </c>
-      <c r="F7" t="s">
-        <v>615</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>374</v>
-      </c>
-      <c r="D8" t="s">
-        <v>428</v>
-      </c>
-      <c r="E8">
-        <v>-350</v>
-      </c>
-      <c r="F8" t="s">
-        <v>616</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="L8" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>374</v>
+      <c r="C9" s="5">
+        <v>45316</v>
       </c>
       <c r="D9" t="s">
-        <v>600</v>
+        <v>566</v>
       </c>
       <c r="E9">
         <v>-3210</v>
       </c>
       <c r="F9" t="s">
-        <v>616</v>
+        <v>465</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>374</v>
+      <c r="C10" s="5">
+        <v>45316</v>
       </c>
       <c r="D10" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="E10">
         <v>4815</v>
       </c>
       <c r="F10" t="s">
-        <v>615</v>
+        <v>464</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="L10" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>375</v>
+      <c r="C11" s="5">
+        <v>45322</v>
       </c>
       <c r="D11" t="s">
-        <v>429</v>
+        <v>370</v>
       </c>
       <c r="E11">
         <v>-12000</v>
       </c>
       <c r="F11" t="s">
-        <v>616</v>
+        <v>465</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>6</v>
-      </c>
-      <c r="L11" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>376</v>
+      <c r="C12" s="5">
+        <v>45327</v>
       </c>
       <c r="D12" t="s">
-        <v>430</v>
+        <v>371</v>
       </c>
       <c r="E12">
         <v>-5000</v>
       </c>
       <c r="F12" t="s">
-        <v>616</v>
+        <v>465</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>7</v>
-      </c>
-      <c r="L12" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>377</v>
+      <c r="C13" s="5">
+        <v>45332</v>
       </c>
       <c r="D13" t="s">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="E13">
         <v>-2000</v>
       </c>
       <c r="F13" t="s">
-        <v>616</v>
+        <v>465</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>8</v>
-      </c>
-      <c r="L13" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>377</v>
+      <c r="C14" s="5">
+        <v>45332</v>
       </c>
       <c r="D14" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="E14">
         <v>-2140</v>
       </c>
       <c r="F14" t="s">
-        <v>616</v>
+        <v>465</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>377</v>
+      <c r="C15" s="5">
+        <v>45332</v>
       </c>
       <c r="D15" t="s">
-        <v>614</v>
+        <v>575</v>
       </c>
       <c r="E15">
         <v>1070</v>
       </c>
       <c r="F15" t="s">
-        <v>615</v>
+        <v>464</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="L15" t="s">
-        <v>617</v>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I2:I15">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8466,10 +6915,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8507,7 +6956,7 @@
         <v>156</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>619</v>
+        <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>157</v>
@@ -8537,7 +6986,7 @@
         <v>165</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>16</v>
@@ -8554,43 +7003,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>620</v>
+        <v>469</v>
       </c>
       <c r="F2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K2" t="s">
+        <v>262</v>
+      </c>
+      <c r="L2" t="s">
         <v>263</v>
       </c>
-      <c r="L2" t="s">
-        <v>264</v>
-      </c>
       <c r="M2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -8607,43 +7056,43 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E3" t="s">
-        <v>621</v>
+        <v>470</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -8660,43 +7109,43 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>622</v>
+        <v>471</v>
       </c>
       <c r="F4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -8713,43 +7162,43 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E5" t="s">
-        <v>623</v>
+        <v>472</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -8766,43 +7215,43 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E6" t="s">
-        <v>624</v>
+        <v>473</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -8819,43 +7268,43 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F7" t="s">
-        <v>625</v>
+        <v>474</v>
       </c>
       <c r="G7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -8872,43 +7321,43 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F8" t="s">
-        <v>626</v>
+        <v>475</v>
       </c>
       <c r="G8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -8925,43 +7374,43 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F9" t="s">
-        <v>627</v>
+        <v>476</v>
       </c>
       <c r="G9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -8978,43 +7427,43 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F10" t="s">
-        <v>628</v>
+        <v>477</v>
       </c>
       <c r="G10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -9031,43 +7480,43 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F11" t="s">
-        <v>629</v>
+        <v>478</v>
       </c>
       <c r="G11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -9084,43 +7533,43 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D12" t="s">
-        <v>635</v>
+        <v>484</v>
       </c>
       <c r="E12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>630</v>
+        <v>479</v>
       </c>
       <c r="G12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M12" t="s">
-        <v>637</v>
+        <v>486</v>
       </c>
       <c r="N12" t="s">
-        <v>636</v>
+        <v>485</v>
       </c>
       <c r="O12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -9137,43 +7586,43 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
-        <v>635</v>
+        <v>484</v>
       </c>
       <c r="E13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F13" t="s">
-        <v>631</v>
+        <v>480</v>
       </c>
       <c r="G13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M13" t="s">
-        <v>638</v>
+        <v>487</v>
       </c>
       <c r="N13" t="s">
-        <v>636</v>
+        <v>485</v>
       </c>
       <c r="O13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -9190,43 +7639,43 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D14" t="s">
-        <v>635</v>
+        <v>484</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F14" t="s">
-        <v>632</v>
+        <v>481</v>
       </c>
       <c r="G14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M14" t="s">
-        <v>639</v>
+        <v>488</v>
       </c>
       <c r="N14" t="s">
-        <v>636</v>
+        <v>485</v>
       </c>
       <c r="O14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -9243,43 +7692,43 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D15" t="s">
-        <v>635</v>
+        <v>484</v>
       </c>
       <c r="E15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F15" t="s">
-        <v>633</v>
+        <v>482</v>
       </c>
       <c r="G15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M15" t="s">
-        <v>640</v>
+        <v>489</v>
       </c>
       <c r="N15" t="s">
-        <v>636</v>
+        <v>485</v>
       </c>
       <c r="O15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -9296,48 +7745,101 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D16" t="s">
-        <v>635</v>
+        <v>484</v>
       </c>
       <c r="E16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F16" t="s">
-        <v>634</v>
+        <v>483</v>
       </c>
       <c r="G16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J16" t="s">
+        <v>261</v>
+      </c>
+      <c r="K16" t="s">
         <v>262</v>
       </c>
-      <c r="K16" t="s">
-        <v>263</v>
-      </c>
       <c r="L16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M16" t="s">
-        <v>641</v>
+        <v>490</v>
       </c>
       <c r="N16" t="s">
-        <v>636</v>
+        <v>485</v>
       </c>
       <c r="O16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>532</v>
+      </c>
+      <c r="D17" t="s">
+        <v>484</v>
+      </c>
+      <c r="E17" t="s">
+        <v>530</v>
+      </c>
+      <c r="F17" t="s">
+        <v>531</v>
+      </c>
+      <c r="G17" t="s">
+        <v>534</v>
+      </c>
+      <c r="H17" t="s">
+        <v>533</v>
+      </c>
+      <c r="I17" t="s">
+        <v>535</v>
+      </c>
+      <c r="J17" s="3">
+        <v>83218</v>
+      </c>
+      <c r="K17" t="s">
+        <v>262</v>
+      </c>
+      <c r="L17" t="s">
+        <v>536</v>
+      </c>
+      <c r="M17" t="s">
+        <v>537</v>
+      </c>
+      <c r="N17" t="s">
+        <v>485</v>
+      </c>
+      <c r="O17" t="s">
+        <v>309</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
         <v>151</v>
       </c>
     </row>
@@ -9350,9 +7852,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -9362,13 +7871,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>17</v>
@@ -9379,13 +7888,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D2" t="s">
-        <v>319</v>
+        <v>540</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45292</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45657</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -9404,7 +7913,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9425,28 +7934,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>642</v>
+        <v>491</v>
       </c>
       <c r="C1" t="s">
-        <v>643</v>
+        <v>492</v>
       </c>
       <c r="D1" t="s">
-        <v>644</v>
+        <v>493</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>645</v>
+        <v>494</v>
       </c>
       <c r="F1" t="s">
         <v>158</v>
       </c>
       <c r="G1" t="s">
-        <v>646</v>
+        <v>495</v>
       </c>
       <c r="H1" t="s">
         <v>164</v>
       </c>
       <c r="I1" t="s">
-        <v>680</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -9454,28 +7963,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>647</v>
+        <v>496</v>
       </c>
       <c r="C2" t="s">
-        <v>648</v>
+        <v>497</v>
       </c>
       <c r="D2" t="s">
-        <v>649</v>
+        <v>498</v>
       </c>
       <c r="E2" t="s">
-        <v>650</v>
+        <v>499</v>
       </c>
       <c r="F2" t="s">
-        <v>651</v>
+        <v>500</v>
       </c>
       <c r="G2" t="s">
-        <v>653</v>
+        <v>502</v>
       </c>
       <c r="H2" t="s">
-        <v>652</v>
+        <v>501</v>
       </c>
       <c r="I2" t="s">
-        <v>679</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -9483,28 +7992,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>654</v>
+        <v>503</v>
       </c>
       <c r="C3" t="s">
-        <v>655</v>
+        <v>504</v>
       </c>
       <c r="D3" t="s">
-        <v>656</v>
+        <v>505</v>
       </c>
       <c r="E3" s="2">
         <v>209268717220</v>
       </c>
       <c r="F3" t="s">
-        <v>657</v>
+        <v>506</v>
       </c>
       <c r="G3" t="s">
-        <v>653</v>
+        <v>502</v>
       </c>
       <c r="H3" t="s">
-        <v>658</v>
+        <v>507</v>
       </c>
       <c r="I3" t="s">
-        <v>678</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -9512,28 +8021,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>659</v>
+        <v>508</v>
       </c>
       <c r="C4" t="s">
-        <v>660</v>
+        <v>509</v>
       </c>
       <c r="D4" t="s">
-        <v>661</v>
+        <v>510</v>
       </c>
       <c r="E4" s="2">
         <v>207555183118</v>
       </c>
       <c r="F4" t="s">
-        <v>662</v>
+        <v>511</v>
       </c>
       <c r="G4" t="s">
-        <v>653</v>
+        <v>502</v>
       </c>
       <c r="H4" t="s">
-        <v>663</v>
+        <v>512</v>
       </c>
       <c r="I4" t="s">
-        <v>677</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -9541,28 +8050,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>664</v>
+        <v>513</v>
       </c>
       <c r="C5" t="s">
-        <v>665</v>
+        <v>514</v>
       </c>
       <c r="D5" t="s">
-        <v>666</v>
+        <v>515</v>
       </c>
       <c r="E5" s="2">
         <v>208714677697</v>
       </c>
       <c r="F5" t="s">
-        <v>667</v>
+        <v>516</v>
       </c>
       <c r="G5" t="s">
-        <v>669</v>
+        <v>518</v>
       </c>
       <c r="H5" t="s">
-        <v>668</v>
+        <v>517</v>
       </c>
       <c r="I5" t="s">
-        <v>676</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -9570,28 +8079,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>670</v>
+        <v>519</v>
       </c>
       <c r="C6" t="s">
-        <v>671</v>
+        <v>520</v>
       </c>
       <c r="D6" t="s">
-        <v>672</v>
+        <v>521</v>
       </c>
       <c r="E6" s="2">
         <v>201564537686</v>
       </c>
       <c r="F6" t="s">
-        <v>673</v>
+        <v>522</v>
       </c>
       <c r="G6" t="s">
-        <v>669</v>
+        <v>518</v>
       </c>
       <c r="H6" t="s">
-        <v>674</v>
+        <v>523</v>
       </c>
       <c r="I6" t="s">
-        <v>675</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -9620,10 +8129,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -9631,13 +8140,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -9648,13 +8157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -9665,13 +8174,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -9682,13 +8191,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9699,13 +8208,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -9732,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -9746,13 +8255,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -9763,13 +8272,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C3">
         <v>7.5</v>
       </c>
       <c r="D3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -9780,13 +8289,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C4">
         <v>3.5</v>
       </c>
       <c r="D4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -9797,13 +8306,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -9814,13 +8323,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -9835,9 +8344,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -9855,7 +8371,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -9866,7 +8382,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -9877,7 +8393,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -9888,7 +8404,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -9899,7 +8415,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -9910,7 +8426,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C7">
         <v>1</v>

--- a/db_tools/acctg_db2/acctg_export2.xlsx
+++ b/db_tools/acctg_db2/acctg_export2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgrammingPython\thanos_app\db_tools\acctg_db2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC28EBC-7403-48C7-A42A-D4D7CF0BD5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8298E5B5-7415-411C-9BED-459503CFDC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="account_types" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,9 @@
     <sheet name="journals" sheetId="10" r:id="rId11"/>
     <sheet name="journal_lines" sheetId="11" r:id="rId12"/>
     <sheet name="invoices" sheetId="14" r:id="rId13"/>
-    <sheet name="product_categories" sheetId="12" r:id="rId14"/>
-    <sheet name="products" sheetId="13" r:id="rId15"/>
-    <sheet name="invoice_lines" sheetId="15" r:id="rId16"/>
+    <sheet name="invoice_lines" sheetId="15" r:id="rId14"/>
+    <sheet name="product_categories" sheetId="12" r:id="rId15"/>
+    <sheet name="products" sheetId="13" r:id="rId16"/>
     <sheet name="bills" sheetId="16" r:id="rId17"/>
     <sheet name="bill_lines" sheetId="17" r:id="rId18"/>
     <sheet name="cash_transactions" sheetId="19" r:id="rId19"/>
@@ -2886,6 +2886,319 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1200</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>180</v>
+      </c>
+      <c r="I2">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>24.99</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>7.5</v>
+      </c>
+      <c r="I3">
+        <v>107.46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>250</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>187.5</v>
+      </c>
+      <c r="I4">
+        <v>2687.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>350</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>131.25</v>
+      </c>
+      <c r="I5">
+        <v>1881.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>408</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>299.99</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>67.5</v>
+      </c>
+      <c r="I6">
+        <v>967.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>5.99</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>8.99</v>
+      </c>
+      <c r="I7">
+        <v>128.79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>225</v>
+      </c>
+      <c r="I8">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>950</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>356.25</v>
+      </c>
+      <c r="I9">
+        <v>5106.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>407</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>24.99</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="I10">
+        <v>268.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2971,7 +3284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
@@ -3527,319 +3840,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>1200</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>180</v>
-      </c>
-      <c r="I2">
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>24.99</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>7.5</v>
-      </c>
-      <c r="I3">
-        <v>107.46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>404</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>250</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>187.5</v>
-      </c>
-      <c r="I4">
-        <v>2687.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>405</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>350</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>131.25</v>
-      </c>
-      <c r="I5">
-        <v>1881.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>299.99</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>67.5</v>
-      </c>
-      <c r="I6">
-        <v>967.47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>406</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>5.99</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>8.99</v>
-      </c>
-      <c r="I7">
-        <v>128.79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>409</v>
-      </c>
-      <c r="E8">
-        <v>40</v>
-      </c>
-      <c r="F8">
-        <v>75</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>225</v>
-      </c>
-      <c r="I8">
-        <v>3225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>403</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>950</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>356.25</v>
-      </c>
-      <c r="I9">
-        <v>5106.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>407</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>24.99</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>18.739999999999998</v>
-      </c>
-      <c r="I10">
-        <v>268.64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J9"/>
@@ -4474,8 +4474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="H26" sqref="A26:XFD1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6404,7 +6404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -6917,17 +6917,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="A18:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
